--- a/数据库字段.xlsx
+++ b/数据库字段.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\bs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D44622B3-3866-4BAC-B653-AD3052400552}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62B01017-C41B-42E0-B8CD-3C8F13CC815C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{3F7CE34F-C3C6-460F-A0FB-DBD4D7DE4FB5}"/>
+    <workbookView xWindow="3825" yWindow="1665" windowWidth="21600" windowHeight="11385" xr2:uid="{3F7CE34F-C3C6-460F-A0FB-DBD4D7DE4FB5}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="149">
   <si>
     <t>用户表</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -609,6 +609,14 @@
   </si>
   <si>
     <t>DEFAULT '出库中' CHECK (out_status IN ('未出库','出库中','已出库')),</t>
+  </si>
+  <si>
+    <t>out_time</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>出库时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -983,8 +991,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6C3A910-BEB3-43FD-82D1-9DEAE7E7B362}">
   <dimension ref="A8:H99"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A73" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D93" sqref="D93"/>
+    <sheetView tabSelected="1" topLeftCell="A78" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A89" sqref="A89:B89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1841,10 +1849,10 @@
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A89" s="1" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>109</v>
+        <v>148</v>
       </c>
       <c r="C89" s="1" t="s">
         <v>34</v>
@@ -1866,6 +1874,9 @@
       <c r="D90" s="1" t="s">
         <v>117</v>
       </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D93" s="2"/>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.2">
       <c r="D94" s="1" t="s">

--- a/数据库字段.xlsx
+++ b/数据库字段.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\bs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62B01017-C41B-42E0-B8CD-3C8F13CC815C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{942602BC-2E0C-4B8A-A37B-73314EA1F0B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3825" yWindow="1665" windowWidth="21600" windowHeight="11385" xr2:uid="{3F7CE34F-C3C6-460F-A0FB-DBD4D7DE4FB5}"/>
+    <workbookView xWindow="11280" yWindow="2160" windowWidth="21600" windowHeight="11385" xr2:uid="{3F7CE34F-C3C6-460F-A0FB-DBD4D7DE4FB5}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="158">
   <si>
     <t>用户表</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -106,10 +106,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>角色</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>登录时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -221,18 +217,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>lg_s_time</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> 开始时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>lg_e_time</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>结束时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -297,10 +281,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>nvarchar(8000)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -317,26 +297,14 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>使用类别</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>lab_type</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>lg_type</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>obj_status</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>所属项目名</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>设备</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -385,34 +353,14 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>double</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>DEFAULT '可借用' CHECK(dev_u_status IN ('可借用','借用中','被借用'))</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>借用人</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>device_s_time</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>device_e_time</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>登记理由</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>借用理由</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>dev_reason</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -501,10 +449,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve"> DEFAULT '无'</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>通知，通过后端拦截查找通知，找到通知并获取，在删除db中的通知，在返回</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -541,19 +485,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>DEFAULT '可预约' CHECK (lg_status IN ('可预约','预约中','被预约')),</t>
-  </si>
-  <si>
-    <t>DEFAULT '课程' CHECK (lg_type IN ('课程','项目','其它')),</t>
-  </si>
-  <si>
-    <t>DEFAULT '普通用户'  CHECK (auth IN('普通用户','管理员','超级管理员')),</t>
-  </si>
-  <si>
     <t>PRIMARY KEY AUTO_INCREMENT,</t>
-  </si>
-  <si>
-    <t>PRIMARY KEY AUTO_INCREMENT,</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -569,27 +501,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>DEFAULT '用户',</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>自己写 NOT NULL,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PRIMARY KEY (lab_id,lg_timing),</t>
-  </si>
-  <si>
-    <t>FOREIGN KEY (lab_id)</t>
-  </si>
-  <si>
-    <t>ALTER TABLE lab_gdt MODIFY lg_timing nvarchar(20) DEFAULT '1-2' CHECK (lo_timing IN ('1-2','2-4','4-6','6-8','8-10'));</t>
-  </si>
-  <si>
-    <t>REFERENCES lab(lab_id),</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>DEFAULT '审批中' CHECK (obj_status in ('审批中','已审批')),</t>
   </si>
   <si>
@@ -616,6 +527,134 @@
   </si>
   <si>
     <t>出库时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DEFAULT '普通用户'  CHECK (auth IN('普通用户','管理员')),</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>角色id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>角色表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>role_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>role_name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>role_detail</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>角色名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>角色描述</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主键，外键，自增长</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NOT NULL,外键</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> NOT NULL,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主键</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>unique</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lg_date</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DEFAULT '可预约' CHECK (lg_status IN ('可预约','被预约')),</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主键 CHECK (lo_timing IN ('0-2','2-4','4-6','6-8','8-10'))</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>record_time</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>登记时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>float</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PRIMARY KEY AUTO_INCREMENT,外键</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>设备借用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>borrow_time</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>return_time</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>is_return</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nvarchar(20)</t>
+  </si>
+  <si>
+    <t>datetime</t>
+  </si>
+  <si>
+    <t>datetime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>boolean</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DEFAULT '可借用' CHECK(dev_u_status IN ('不可用','可借用','申请中','被借用')),</t>
+  </si>
+  <si>
+    <t>sme_id</t>
+  </si>
+  <si>
+    <t>易耗品id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>外键</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -989,10 +1028,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6C3A910-BEB3-43FD-82D1-9DEAE7E7B362}">
-  <dimension ref="A8:H99"/>
+  <dimension ref="A8:H107"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A78" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A89" sqref="A89:B89"/>
+    <sheetView tabSelected="1" topLeftCell="A97" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D92" sqref="D92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1021,7 +1060,7 @@
         <v>4</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>131</v>
+        <v>113</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
@@ -1035,7 +1074,7 @@
         <v>9</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>132</v>
+        <v>114</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
@@ -1049,12 +1088,12 @@
         <v>9</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>133</v>
+        <v>115</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>12</v>
@@ -1063,12 +1102,12 @@
         <v>9</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>133</v>
+        <v>115</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>13</v>
@@ -1077,12 +1116,12 @@
         <v>9</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>134</v>
+        <v>116</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>14</v>
@@ -1091,12 +1130,12 @@
         <v>9</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>133</v>
+        <v>115</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>15</v>
@@ -1105,12 +1144,12 @@
         <v>9</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>133</v>
+        <v>115</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>16</v>
@@ -1119,12 +1158,12 @@
         <v>9</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>133</v>
+        <v>115</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>17</v>
@@ -1133,651 +1172,607 @@
         <v>9</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>26</v>
+        <v>128</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>18</v>
+        <v>126</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="E19" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H19" s="1" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A20" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>25</v>
+      </c>
       <c r="E20" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F20" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="F20" s="1" t="s">
-        <v>29</v>
-      </c>
       <c r="G20" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A21" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A22" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A27" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B27" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B23" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A24" s="1" t="s">
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A28" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B24" s="1" t="s">
+      <c r="B28" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C24" s="1" t="s">
+      <c r="C28" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D24" s="1" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A25" s="2" t="s">
+      <c r="D28" s="1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A29" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C29" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B25" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A26" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="E26" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="F26" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="G26" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="H26" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A29" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>40</v>
+      <c r="D29" s="1" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C30" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B30" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A31" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A32" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="C32" s="1" t="s">
+      <c r="D30" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="E30" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D32" s="1" t="s">
-        <v>127</v>
+      <c r="F30" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="H30" s="1" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
-        <v>49</v>
+        <v>2</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>50</v>
+        <v>3</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>34</v>
+        <v>4</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
-        <v>66</v>
+        <v>36</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>60</v>
+        <v>41</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>38</v>
+        <v>9</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
-        <v>73</v>
+        <v>45</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>71</v>
+        <v>42</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>38</v>
+        <v>9</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>128</v>
+        <v>141</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A38" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A39" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B39" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="B37" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="C37" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="D37" s="1" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="D38" s="1" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="D39" s="1" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="D40" s="1" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="D41" s="1" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A45" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="B45" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A46" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B46" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="C46" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D46" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A47" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="B47" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="C47" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="D47" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A48" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="B48" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="C48" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="D48" s="1" t="s">
-        <v>11</v>
+      <c r="C39" s="1" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
-        <v>74</v>
+        <v>50</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="C49" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="D49" s="1" t="s">
-        <v>141</v>
+        <v>51</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
-        <v>66</v>
+        <v>2</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>38</v>
+        <v>4</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>11</v>
+        <v>64</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
-        <v>64</v>
+        <v>52</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>32</v>
+        <v>10</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="B52" s="1" t="s">
-        <v>50</v>
+        <v>55</v>
+      </c>
+      <c r="B52" s="3" t="s">
+        <v>54</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>34</v>
+        <v>62</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>32</v>
+        <v>11</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
-        <v>83</v>
+        <v>67</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>93</v>
+        <v>57</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>67</v>
+        <v>37</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>33</v>
+        <v>117</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A54" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
-        <v>76</v>
+        <v>60</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>78</v>
+        <v>59</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
-        <v>2</v>
+        <v>61</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>3</v>
+        <v>46</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>4</v>
+        <v>33</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>130</v>
+        <v>31</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
-        <v>79</v>
+        <v>142</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>80</v>
+        <v>143</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="D57" s="1" t="s">
-        <v>10</v>
+        <v>152</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B58" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="B58" s="1" t="s">
-        <v>82</v>
-      </c>
       <c r="C58" s="1" t="s">
-        <v>88</v>
+        <v>62</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A59" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="B59" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="C59" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="D59" s="1" t="s">
-        <v>89</v>
+        <v>32</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
-        <v>87</v>
+        <v>68</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="C60" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="D60" s="1" t="s">
-        <v>142</v>
+        <v>70</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
-        <v>66</v>
+        <v>2</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>90</v>
+        <v>3</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>38</v>
+        <v>4</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>32</v>
+        <v>145</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
-        <v>91</v>
+        <v>71</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>63</v>
+        <v>72</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>32</v>
+        <v>10</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
-        <v>92</v>
+        <v>73</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>50</v>
+        <v>74</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>34</v>
+        <v>144</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>32</v>
+        <v>11</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
-        <v>95</v>
+        <v>76</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>94</v>
+        <v>77</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>67</v>
+        <v>37</v>
+      </c>
+      <c r="D64" s="1" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A65" s="1" t="s">
-        <v>56</v>
+        <v>79</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>117</v>
+        <v>118</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A67" s="1" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A68" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="B68" s="1" t="s">
-        <v>97</v>
+        <v>2</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B69" s="1" t="s">
-        <v>3</v>
+        <v>76</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>4</v>
+        <v>150</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>77</v>
+        <v>154</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A70" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="B70" s="1" t="s">
-        <v>99</v>
+        <v>7</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="D70" s="1" t="s">
-        <v>10</v>
+        <v>150</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A71" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="B71" s="1" t="s">
-        <v>100</v>
+        <v>147</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D71" s="1" t="s">
-        <v>104</v>
+        <v>152</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A72" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>152</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A73" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="B73" s="1" t="s">
-        <v>101</v>
+        <v>82</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A74" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B74" s="1" t="s">
-        <v>3</v>
+        <v>149</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D74" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A75" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="B75" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="C75" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="D75" s="1" t="s">
-        <v>11</v>
+        <v>153</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A76" s="1" t="s">
-        <v>111</v>
+        <v>83</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="C76" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D76" s="1" t="s">
-        <v>144</v>
+        <v>84</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A77" s="1" t="s">
-        <v>66</v>
+        <v>2</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>105</v>
+        <v>3</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>38</v>
+        <v>4</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>11</v>
+        <v>69</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="s">
-        <v>145</v>
+        <v>85</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>109</v>
+        <v>86</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A79" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B79" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C79" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D79" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A81" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A82" s="1" t="s">
-        <v>107</v>
+        <v>2</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>108</v>
+        <v>3</v>
+      </c>
+      <c r="C82" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D82" s="1" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A83" s="1" t="s">
-        <v>2</v>
+        <v>155</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>3</v>
+        <v>156</v>
       </c>
       <c r="C83" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>44</v>
+        <v>157</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.2">
@@ -1785,165 +1780,215 @@
         <v>98</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>38</v>
+        <v>4</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>11</v>
+        <v>120</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A85" s="1" t="s">
-        <v>112</v>
+        <v>7</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>110</v>
+        <v>92</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>4</v>
+        <v>37</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>143</v>
+        <v>11</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A86" s="1" t="s">
-        <v>66</v>
+        <v>121</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>38</v>
+        <v>151</v>
       </c>
       <c r="D86" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A87" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="B87" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="C87" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="D87" s="1" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A88" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="B88" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="C88" s="1" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A89" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="B89" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="C89" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="D89" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A90" s="1" t="s">
-        <v>56</v>
+        <v>94</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="C90" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="D90" s="1" t="s">
-        <v>117</v>
+        <v>95</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A91" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B91" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C91" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D91" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A92" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="B92" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="C92" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D92" s="1" t="s">
+        <v>157</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="D93" s="2"/>
+      <c r="A93" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B93" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C93" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D93" s="1" t="s">
+        <v>119</v>
+      </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A94" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B94" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C94" s="1" t="s">
+        <v>37</v>
+      </c>
       <c r="D94" s="1" t="s">
-        <v>118</v>
+        <v>11</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A95" s="1" t="s">
-        <v>119</v>
+        <v>102</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>120</v>
+        <v>101</v>
+      </c>
+      <c r="C95" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D95" s="1" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A96" s="1" t="s">
-        <v>2</v>
+        <v>103</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>3</v>
+        <v>100</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D96" s="1" t="s">
-        <v>44</v>
+        <v>62</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A97" s="1" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>38</v>
+        <v>152</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A98" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="B98" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="C98" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="D98" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A99" s="1" t="s">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D101" s="2"/>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D102" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A103" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B103" s="1" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A104" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B104" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C104" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D104" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A105" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="B105" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="C105" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D105" s="1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A106" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="B106" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C106" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D106" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A107" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B99" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="C99" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="D99" s="1" t="s">
+      <c r="B107" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="C107" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D107" s="1" t="s">
         <v>11</v>
       </c>
     </row>
